--- a/output/Results_bm25_extraQuestions.xlsx
+++ b/output/Results_bm25_extraQuestions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="579">
   <si>
     <t>Tipo</t>
   </si>
@@ -103,12 +103,18 @@
     <t>summer salad ideas</t>
   </si>
   <si>
+    <t>Esfiha de carne vegana</t>
+  </si>
+  <si>
     <t>Gluten-free dinner ideas for celiac disease patients</t>
   </si>
   <si>
     <t>How can I prepare a low-sodium meal for heart patients?</t>
   </si>
   <si>
+    <t>I have 9min maximum to make a lunch, can you help me?</t>
+  </si>
+  <si>
     <t>I'm vegan. How can I make a bolognese?</t>
   </si>
   <si>
@@ -421,6 +427,12 @@
     <t>374703</t>
   </si>
   <si>
+    <t>24701</t>
+  </si>
+  <si>
+    <t>112959</t>
+  </si>
+  <si>
     <t>185799</t>
   </si>
   <si>
@@ -442,6 +454,18 @@
     <t>449768</t>
   </si>
   <si>
+    <t>107699</t>
+  </si>
+  <si>
+    <t>35173</t>
+  </si>
+  <si>
+    <t>78655</t>
+  </si>
+  <si>
+    <t>47037</t>
+  </si>
+  <si>
     <t>47366</t>
   </si>
   <si>
@@ -604,9 +628,6 @@
     <t>474805</t>
   </si>
   <si>
-    <t>24701</t>
-  </si>
-  <si>
     <t>416599</t>
   </si>
   <si>
@@ -928,6 +949,12 @@
     <t>tasty s    the power of flower7 salad</t>
   </si>
   <si>
+    <t>cream  of spinach soup  vegan</t>
+  </si>
+  <si>
+    <t>sour cream  avocado dip  vegan</t>
+  </si>
+  <si>
     <t>splenda   d  cheesecake sugar free low carb</t>
   </si>
   <si>
@@ -949,6 +976,18 @@
     <t>12 hour tomatoes</t>
   </si>
   <si>
+    <t>deep fried dessert thingys</t>
+  </si>
+  <si>
+    <t>italian  gut busters</t>
+  </si>
+  <si>
+    <t>my muffuletta sandwich</t>
+  </si>
+  <si>
+    <t>trini  burgers</t>
+  </si>
+  <si>
     <t>forgotten  minestrone</t>
   </si>
   <si>
@@ -1109,9 +1148,6 @@
   </si>
   <si>
     <t>3 c s and a p pizza</t>
-  </si>
-  <si>
-    <t>cream  of spinach soup  vegan</t>
   </si>
   <si>
     <t>2 2 2 diet mocha</t>
@@ -4399,6 +4435,76 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">cream  of spinach soup  vegan
+Recipe posted on: 2002-04-08
+Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, preparation, occasion, bisques-cream-soups, main-dish, soups-stews, vegetables, vegan, vegetarian, stove-top, dietary, one-dish-meal, low-cholesterol, low-saturated-fat, low-calorie, comfort-food, low-in-something, taste-mood, equipment
+Description: thickened with a mix of cooked oats and vegies, this soup has all the flavor of the original with a fraction of the fat stuff. low in cholestorol too!
+This recipe takes 55 minutes to be done.
+For this recipe you will need the ingredients: 
+onion
+scallion
+apple juice
+olive oil
+spinach
+fresh parsley
+celery
+broth
+rolled oats
+salt
+dried thyme
+white pepper
+The 10 steps to make this recipe are: 
+in a 3 qt saucepan over medium high heat 
+saute the onions and scallions in the apple juice and oil for 5 minutes 
+stirring frequently
+add the spinach 
+parsley and celery
+cook for 5-7 minutes 
+stirring occasionally add the broth 
+oats 
+salt 
+thyme and pepper
+bring to a boil 
+then lower the heat to medium
+cover and simmer for 20 minutes
+remove from the heat
+let the soup cool for 10 minutes
+working in batches 
+puree in a blender until thick and smooth
+return to the pot
+reheat and serve
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sour cream  avocado dip  vegan
+Recipe posted on: 2005-03-08
+Tags: lactose, 15-minutes-or-less, time-to-make, course, cuisine, preparation, occasion, north-american, for-large-groups, appetizers, mexican, easy, no-cook, potluck, holiday-event, vegan, vegetarian, dips, spreads, dietary, low-sodium, low-cholesterol, low-saturated-fat, low-calorie, low-carb, inexpensive, healthy-2, free-of-something, low-in-something, superbowl, to-go, equipment, small-appliance, mixer, number-of-servings, presentation, served-cold, technique
+Description: i made this up when i had an avocado that was getting too ripe and some leftover cilantro. it's good with chips or cut-up veggies, as a topping for mexican food or baked potatoes, etc. totally vegan and even my husband liked it.
+This recipe takes 10 minutes to be done.
+For this recipe you will need the ingredients: 
+soft silken tofu
+avocado
+chunky salsa
+fresh cilantro
+lime juice
+hot sauce
+salt and pepper
+The 6 steps to make this recipe are: 
+peel and pit avocado 
+put in a large mixing bowl
+add entire block of tofu and salsa
+combine ingredients using a hand mixer on medium speed for about 1 minute or until the mixture becomes smooth
+add remaining ingredients 
+mix on low speed until all ingredients are blended together
+chill for one hour and serve
+store leftovers in the fridge in an air-tight container
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">splenda   d  cheesecake sugar free low carb
 Recipe posted on: 2006-09-13
 Tags: time-to-make, course, main-ingredient, preparation, occasion, desserts, eggs-dairy, easy, beginner-cook, diabetic, romantic, cheesecake, cheese, eggs, dietary, comfort-food, taste-mood, sweet, 4-hours-or-less
@@ -4723,6 +4829,185 @@
 you can pack the tomatoes into glass jars 
 covered with olive oil 
 for several months
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep fried dessert thingys
+Recipe posted on: 2005-01-05
+Tags: 30-minutes-or-less, time-to-make, course, preparation, occasion, low-protein, desserts, deep-fry, stove-top, dietary, high-calcium, high-in-something, low-in-something, taste-mood, sweet, equipment, technique
+Description: my mother used to make this for us as a special treat. i don't know where she got this recipe or what it is called (hence the title). my husband loves this and encouraged me to submit it. this recipe is full of sugar and oil and is as unhealthy as a desert can be but very yummy.
+This recipe takes 20 minutes to be done.
+For this recipe you will need the ingredients: 
+all-purpose flour
+granulated sugar
+baking powder
+salt
+vanilla extract
+egg
+milk
+vegetable oil
+bread
+brown sugar
+ground cinnamon
+butter
+powdered sugar
+The 20 steps to make this recipe are: 
+in a large bowl 
+mix flour 
+granulated sugar 
+baking powder and salt
+make a well in the center of the flour mixture 
+and pour in milk 
+vanilla 
+egg and 2 tablespoons oil
+mix until smooth
+heat remaining vegetable oil to 400 degrees in a small deep fryer
+oil is hot enough when it starts to ripple
+be careful not to overheat
+butter one side of each bread slice
+sprinkle the brown sugar and cinnamon evenly onto the buttered side of the bread slices
+make sandwiches by placing the slices of bread together with the brown sugar on the inside
+cut the sandwiches into quarters
+now is a good time to test the oil by dropping in a very small amount of batter
+batter should sizzle and brown in about 20 seconds
+oil needs to be hot enough to melt the brown sugar inside the sandwiches but not so hot that it scorches the batter
+dip the sandwiches into the batter mixture
+using deep fryer tongs 
+carefully place the battered sandwiches into the heated oil
+be cautious when deep frying
+try to avoid burns from splattering hot oil
+remove sandwiches from the oil when they are golden brown
+set aside to cool for a couple of minutes
+sprinkle with powdered sugar and serve
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italian  gut busters
+Recipe posted on: 2002-07-27
+Tags: 60-minutes-or-less, time-to-make, course, preparation, lunch, main-dish, oven, easy, dietary, sandwiches, equipment
+Description: my sister-in-law made these for us at a family get together. they are delicious!! a little messy to make but worth the effort!! have a helper and make an 
+This recipe takes 45 minutes to be done.
+For this recipe you will need the ingredients: 
+sandwich bun
+good seasonings italian salad dressing mix
+butter
+deli turkey
+ham
+pepperoni
+cheddar cheese
+swiss cheese
+mozzarella cheese
+The 7 steps to make this recipe are: 
+lay out sandwich rolls on jelly roll pans / cookie sheets
+melt butter 
+mix in italian dressing mix
+using a pastry or bbq brush 
+graciously apply seasoned butter to the top of the"bottom bun" and the top of the top bun
+"dont miss this step 
+i dont know why 
+but it does make a difference !"
+here is where i create an assembly line w / the bottoms of the buns
+layer each bun w / ham 
+then swiss cheese 
+turkey 
+then cheddar cheese 
+pepperoni 
+then mozzerella cheese
+place"lids" on buns and place in 425 degree oven for approximly 12-15 minutes 
+or until you see the tops start to turn golden brown
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my muffuletta sandwich
+Recipe posted on: 2003-12-12
+Tags: 30-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, lunch, pork, easy, european, finger-food, italian, sandwiches, meat, novelty, presentation, 3-steps-or-less
+Description: watched a documentary about the 
+This recipe takes 20 minutes to be done.
+For this recipe you will need the ingredients: 
+ciabatta
+provolone cheese
+genoa salami
+ham
+tomatoes
+sweet onion
+green olives
+kalamata olive
+fresh basil
+capers
+garlic
+brine
+oregano leaves
+olive oil
+red wine vinegar
+fresh parsley
+carrot
+The 3 steps to make this recipe are: 
+mix everything in food processor
+chop fine for spread
+refrigerate until ready to use
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trini  burgers
+Recipe posted on: 2002-11-20
+Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, north-american, lunch, main-dish, beef, fruit, american, stove-top, dietary, low-sodium, sandwiches, low-calorie, low-carb, ground-beef, low-in-something, tropical-fruit, papaya, meat, equipment
+Description: this is our favorite of many wonderful burger recipes found in "burger meisters", a cookbook put together by marcel desaulniers. if you like this or prefer burgers with other types of meats (fish, rabbit, turkey...) you may want to check out the recipe book.
+This recipe takes 50 minutes to be done.
+For this recipe you will need the ingredients: 
+lean ground beef
+worcestershire sauce
+fresh thyme
+ground cumin
+cayenne pepper
+onion
+cheddar cheese
+salt
+white pepper
+hamburger buns
+mayonnaise
+bibb lettuce
+tomatoes
+papaya
+The 16 steps to make this recipe are: 
+in a 5-quart stainless steel bowl 
+gently but thoroughly combine the ground beef with the worcestershire sauce 
+thyme 
+cumin 
+and cayenne pepper
+gently form the ground beef mixture into eight 4-ounce 
+3 / 4-inch-thick patties
+use a metal spoon to make a small indentation in the center of 4 of the beef patties
+combine the onions and cheddar
+divide this mixture into 4 equal portions and place a portion in each indentation
+top with another patty and gently form into a burger 
+making sure to seal all open edges
+season the burgers with salt and white pepper
+cover the burgers with plastic wrap and refrigerate until needed
+grill the burgers over a medium wood or charcoal fire
+cook to the desired doneness: about 5-6 minutes on each side for rare 
+6-7 minutes on each side for medium 
+and 9-10 minutes on each side for well-done
+remove the burgers from the grill
+toast the buns 
+cut side down 
+on the grill or griddle or in a nonstick saute pan until golden brown 
+about 1 minute
+spread 1 / 2 tablespoons
+mayonnaise onto each burger bun half
+place 1 of the lettuce leaves on the bottom half of each bun 
+then top each with a burger 
+2 of the tomato slices 
+2 of the papaya slices 
+and the top half of the bun
+serve immediately accompanied by"trini tropical fruit salad"
 The mean rating for this recipe is: No reviews
 User reviews: 
 </t>
@@ -6814,49 +7099,6 @@
 evenly distribute shredded cheeses over all
 put back in oven and cook for 10-15 minutes until browned and bubbly
 let rest for a couple of minutes before slicing into 8 slices
-The mean rating for this recipe is: No reviews
-User reviews: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cream  of spinach soup  vegan
-Recipe posted on: 2002-04-08
-Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, preparation, occasion, bisques-cream-soups, main-dish, soups-stews, vegetables, vegan, vegetarian, stove-top, dietary, one-dish-meal, low-cholesterol, low-saturated-fat, low-calorie, comfort-food, low-in-something, taste-mood, equipment
-Description: thickened with a mix of cooked oats and vegies, this soup has all the flavor of the original with a fraction of the fat stuff. low in cholestorol too!
-This recipe takes 55 minutes to be done.
-For this recipe you will need the ingredients: 
-onion
-scallion
-apple juice
-olive oil
-spinach
-fresh parsley
-celery
-broth
-rolled oats
-salt
-dried thyme
-white pepper
-The 10 steps to make this recipe are: 
-in a 3 qt saucepan over medium high heat 
-saute the onions and scallions in the apple juice and oil for 5 minutes 
-stirring frequently
-add the spinach 
-parsley and celery
-cook for 5-7 minutes 
-stirring occasionally add the broth 
-oats 
-salt 
-thyme and pepper
-bring to a boil 
-then lower the heat to medium
-cover and simmer for 20 minutes
-remove from the heat
-let the soup cool for 10 minutes
-working in batches 
-puree in a blender until thick and smooth
-return to the pot
-reheat and serve
 The mean rating for this recipe is: No reviews
 User reviews: 
 </t>
@@ -8280,7 +8522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8317,13 +8559,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8337,13 +8579,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8357,13 +8599,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8377,13 +8619,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8397,13 +8639,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8417,13 +8659,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8437,13 +8679,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8457,13 +8699,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8477,13 +8719,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8497,13 +8739,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8517,13 +8759,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8537,13 +8779,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8557,13 +8799,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8577,13 +8819,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8597,13 +8839,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8617,13 +8859,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8637,13 +8879,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8657,13 +8899,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8677,13 +8919,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F20" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8697,13 +8939,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F21" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8717,13 +8959,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F22" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8737,13 +8979,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8757,13 +8999,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F24" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8777,13 +9019,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8797,13 +9039,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8817,13 +9059,13 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F27" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8837,13 +9079,13 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8857,13 +9099,13 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8877,13 +9119,13 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8897,13 +9139,13 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8917,13 +9159,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F32" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8937,13 +9179,13 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F33" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8957,13 +9199,13 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F34" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8977,13 +9219,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F35" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8997,13 +9239,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9017,13 +9259,13 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F37" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9037,13 +9279,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9057,13 +9299,13 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F39" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9077,13 +9319,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9097,13 +9339,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F41" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9117,13 +9359,13 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9137,13 +9379,13 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F43" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -9157,13 +9399,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F44" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9177,13 +9419,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9197,13 +9439,13 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9217,13 +9459,13 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9237,13 +9479,13 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9257,13 +9499,13 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9277,13 +9519,13 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9297,13 +9539,13 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9317,13 +9559,13 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F52" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9337,13 +9579,13 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9357,13 +9599,13 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F54" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9377,13 +9619,13 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9397,13 +9639,13 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9417,13 +9659,13 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9437,13 +9679,13 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9457,13 +9699,13 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9477,13 +9719,13 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9497,13 +9739,13 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F61" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9517,13 +9759,13 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9537,13 +9779,13 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F63" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9557,13 +9799,13 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9577,13 +9819,13 @@
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9597,13 +9839,13 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F66" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9617,13 +9859,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9637,13 +9879,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E68" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9657,13 +9899,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9677,13 +9919,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9697,13 +9939,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9717,13 +9959,13 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9737,13 +9979,13 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F73" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9757,13 +9999,13 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9777,13 +10019,13 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F75" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9797,13 +10039,13 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9817,13 +10059,13 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F77" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -9837,13 +10079,13 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F78" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9857,13 +10099,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F79" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9877,13 +10119,13 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F80" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -9897,13 +10139,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -9917,13 +10159,13 @@
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9937,13 +10179,13 @@
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9957,13 +10199,13 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9977,13 +10219,13 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E85" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9997,13 +10239,13 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F86" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10017,13 +10259,13 @@
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="F87" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10037,13 +10279,13 @@
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F88" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10057,13 +10299,13 @@
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="F89" t="s">
-        <v>396</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -10077,13 +10319,13 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="F90" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -10097,13 +10339,13 @@
         <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="E91" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="F91" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -10117,13 +10359,13 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F92" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10137,13 +10379,13 @@
         <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F93" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10157,13 +10399,13 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="E94" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="F94" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10180,10 +10422,10 @@
         <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F95" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10200,10 +10442,10 @@
         <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F96" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10220,10 +10462,10 @@
         <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F97" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10237,13 +10479,13 @@
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10257,13 +10499,13 @@
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10280,10 +10522,10 @@
         <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F100" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10300,10 +10542,10 @@
         <v>145</v>
       </c>
       <c r="E101" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F101" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10311,19 +10553,19 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E102" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F102" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10331,19 +10573,19 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F103" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10351,19 +10593,19 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E104" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F104" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10371,19 +10613,19 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F105" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10391,7 +10633,7 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
@@ -10400,10 +10642,10 @@
         <v>149</v>
       </c>
       <c r="E106" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F106" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10411,7 +10653,7 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>33</v>
@@ -10420,10 +10662,10 @@
         <v>150</v>
       </c>
       <c r="E107" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F107" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10431,7 +10673,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>33</v>
@@ -10440,10 +10682,10 @@
         <v>151</v>
       </c>
       <c r="E108" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F108" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10451,19 +10693,19 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="F109" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10471,19 +10713,19 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E110" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F110" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10491,19 +10733,19 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
         <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E111" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F111" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -10511,19 +10753,19 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E112" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F112" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10531,19 +10773,19 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F113" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10551,19 +10793,19 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F114" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -10571,19 +10813,19 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F115" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -10591,19 +10833,19 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E116" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F116" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10617,13 +10859,13 @@
         <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F117" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10637,13 +10879,13 @@
         <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E118" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F118" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10657,13 +10899,13 @@
         <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E119" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F119" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10677,13 +10919,13 @@
         <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E120" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F120" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10697,13 +10939,13 @@
         <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E121" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F121" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10711,19 +10953,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E122" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F122" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10731,19 +10973,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E123" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F123" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10751,19 +10993,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E124" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F124" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10771,19 +11013,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E125" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F125" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10791,19 +11033,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
         <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E126" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F126" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -10817,13 +11059,13 @@
         <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="E127" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="F127" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -10840,10 +11082,10 @@
         <v>169</v>
       </c>
       <c r="E128" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F128" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -10860,10 +11102,10 @@
         <v>170</v>
       </c>
       <c r="E129" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F129" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10877,13 +11119,13 @@
         <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="F130" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -10897,13 +11139,13 @@
         <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E131" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F131" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -10917,13 +11159,13 @@
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E132" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F132" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -10937,13 +11179,13 @@
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E133" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F133" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -10957,13 +11199,13 @@
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="E134" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="F134" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -10980,10 +11222,10 @@
         <v>175</v>
       </c>
       <c r="E135" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F135" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11000,10 +11242,10 @@
         <v>176</v>
       </c>
       <c r="E136" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F136" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -11017,13 +11259,13 @@
         <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="E137" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="F137" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -11037,13 +11279,13 @@
         <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E138" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F138" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -11057,13 +11299,13 @@
         <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E139" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F139" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -11077,13 +11319,13 @@
         <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E140" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F140" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -11097,13 +11339,13 @@
         <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E141" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F141" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -11117,13 +11359,13 @@
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="F142" t="s">
-        <v>448</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -11140,10 +11382,10 @@
         <v>182</v>
       </c>
       <c r="E143" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F143" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -11157,13 +11399,13 @@
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="E144" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="F144" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -11177,13 +11419,13 @@
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E145" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F145" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -11197,13 +11439,13 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E146" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F146" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -11211,19 +11453,19 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E147" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F147" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -11231,19 +11473,19 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E148" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F148" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -11251,19 +11493,19 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E149" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F149" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11271,19 +11513,19 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
         <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E150" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F150" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -11291,19 +11533,19 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E151" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F151" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11317,13 +11559,13 @@
         <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="E152" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -11337,13 +11579,13 @@
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E153" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F153" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -11357,13 +11599,13 @@
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E154" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F154" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -11377,13 +11619,13 @@
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E155" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -11397,13 +11639,13 @@
         <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E156" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F156" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -11411,19 +11653,19 @@
         <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="E157" t="s">
-        <v>223</v>
+        <v>368</v>
       </c>
       <c r="F157" t="s">
-        <v>392</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -11431,19 +11673,19 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E158" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F158" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -11451,19 +11693,19 @@
         <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="E159" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="F159" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -11471,19 +11713,19 @@
         <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
         <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="E160" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="F160" t="s">
-        <v>437</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -11491,19 +11733,19 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
         <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="E161" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="F161" t="s">
-        <v>448</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -11517,13 +11759,13 @@
         <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="E162" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="F162" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -11537,13 +11779,13 @@
         <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="E163" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="F163" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -11557,13 +11799,13 @@
         <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="F164" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -11577,13 +11819,13 @@
         <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="E165" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="F165" t="s">
-        <v>414</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -11597,13 +11839,13 @@
         <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E166" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F166" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -11611,19 +11853,19 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
         <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="E167" t="s">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="F167" t="s">
-        <v>537</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -11631,19 +11873,19 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E168" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F168" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -11651,19 +11893,19 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
         <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="E169" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11671,19 +11913,19 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E170" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F170" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -11691,19 +11933,19 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
         <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="E171" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="F171" t="s">
-        <v>538</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -11717,13 +11959,13 @@
         <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="E172" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -11737,13 +11979,13 @@
         <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E173" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F173" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -11757,13 +11999,13 @@
         <v>46</v>
       </c>
       <c r="D174" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="E174" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="F174" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -11777,13 +12019,13 @@
         <v>46</v>
       </c>
       <c r="D175" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="E175" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="F175" t="s">
-        <v>541</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -11797,13 +12039,13 @@
         <v>46</v>
       </c>
       <c r="D176" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E176" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F176" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -11817,13 +12059,13 @@
         <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E177" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F177" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -11837,13 +12079,13 @@
         <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="E178" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="F178" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -11857,13 +12099,13 @@
         <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="E179" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="F179" t="s">
-        <v>544</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -11877,13 +12119,13 @@
         <v>47</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="E180" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="F180" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -11900,10 +12142,10 @@
         <v>206</v>
       </c>
       <c r="E181" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F181" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -11917,13 +12159,13 @@
         <v>48</v>
       </c>
       <c r="D182" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="E182" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="F182" t="s">
-        <v>447</v>
+        <v>556</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -11937,13 +12179,13 @@
         <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="E183" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
       <c r="F183" t="s">
-        <v>546</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -11957,13 +12199,13 @@
         <v>48</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="E184" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="F184" t="s">
-        <v>394</v>
+        <v>557</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -11977,13 +12219,13 @@
         <v>48</v>
       </c>
       <c r="D185" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="E185" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="F185" t="s">
-        <v>448</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -11997,13 +12239,13 @@
         <v>48</v>
       </c>
       <c r="D186" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="E186" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="F186" t="s">
-        <v>449</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12017,13 +12259,13 @@
         <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E187" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F187" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12037,13 +12279,13 @@
         <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="E188" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="F188" t="s">
-        <v>548</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12057,13 +12299,13 @@
         <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E189" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F189" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -12077,13 +12319,13 @@
         <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="E190" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="F190" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -12097,13 +12339,13 @@
         <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F191" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -12111,19 +12353,19 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
         <v>50</v>
       </c>
       <c r="D192" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="E192" t="s">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="F192" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -12131,7 +12373,7 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
         <v>50</v>
@@ -12140,10 +12382,10 @@
         <v>214</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F193" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -12151,19 +12393,19 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
         <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="E194" t="s">
-        <v>384</v>
+        <v>232</v>
       </c>
       <c r="F194" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -12171,19 +12413,19 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
         <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F195" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -12191,19 +12433,19 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
         <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="E196" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F196" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -12217,13 +12459,13 @@
         <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="E197" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -12237,13 +12479,13 @@
         <v>51</v>
       </c>
       <c r="D198" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E198" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="F198" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -12257,13 +12499,13 @@
         <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="E199" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -12277,13 +12519,13 @@
         <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="E200" t="s">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -12297,13 +12539,13 @@
         <v>51</v>
       </c>
       <c r="D201" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="E201" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -12317,13 +12559,13 @@
         <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -12337,13 +12579,13 @@
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E203" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -12357,13 +12599,13 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F204" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -12377,13 +12619,13 @@
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E205" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -12397,13 +12639,213 @@
         <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>561</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" t="s">
+        <v>55</v>
+      </c>
+      <c r="E207" t="s">
+        <v>230</v>
+      </c>
+      <c r="F207" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>53</v>
+      </c>
+      <c r="D208" t="s">
+        <v>137</v>
+      </c>
+      <c r="E208" t="s">
+        <v>311</v>
+      </c>
+      <c r="F208" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>53</v>
+      </c>
+      <c r="D209" t="s">
+        <v>151</v>
+      </c>
+      <c r="E209" t="s">
+        <v>325</v>
+      </c>
+      <c r="F209" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>53</v>
+      </c>
+      <c r="D210" t="s">
+        <v>100</v>
+      </c>
+      <c r="E210" t="s">
+        <v>274</v>
+      </c>
+      <c r="F210" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>53</v>
+      </c>
+      <c r="D211" t="s">
+        <v>164</v>
+      </c>
+      <c r="E211" t="s">
+        <v>338</v>
+      </c>
+      <c r="F211" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" t="s">
+        <v>225</v>
+      </c>
+      <c r="E212" t="s">
+        <v>399</v>
+      </c>
+      <c r="F212" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" t="s">
+        <v>226</v>
+      </c>
+      <c r="E213" t="s">
+        <v>400</v>
+      </c>
+      <c r="F213" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" t="s">
+        <v>227</v>
+      </c>
+      <c r="E214" t="s">
+        <v>401</v>
+      </c>
+      <c r="F214" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" t="s">
+        <v>228</v>
+      </c>
+      <c r="E215" t="s">
+        <v>402</v>
+      </c>
+      <c r="F215" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" t="s">
+        <v>229</v>
+      </c>
+      <c r="E216" t="s">
+        <v>403</v>
+      </c>
+      <c r="F216" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
